--- a/excel/usu_secc.xlsx
+++ b/excel/usu_secc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php_isa\Incidencias_EVG\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Bonilla Pizarro, Juan Francisco</t>
   </si>
@@ -42,6 +42,111 @@
   </si>
   <si>
     <t>BC1C</t>
+  </si>
+  <si>
+    <t>1ESOA</t>
+  </si>
+  <si>
+    <t>1ESOB</t>
+  </si>
+  <si>
+    <t>1ESOC</t>
+  </si>
+  <si>
+    <t>2ESOA</t>
+  </si>
+  <si>
+    <t>2ESOB</t>
+  </si>
+  <si>
+    <t>2ESOC</t>
+  </si>
+  <si>
+    <t>3ESOA</t>
+  </si>
+  <si>
+    <t>3ESOB</t>
+  </si>
+  <si>
+    <t>3ESOC</t>
+  </si>
+  <si>
+    <t>4ESOA</t>
+  </si>
+  <si>
+    <t>4ESOB</t>
+  </si>
+  <si>
+    <t>4ESOC</t>
+  </si>
+  <si>
+    <t>BC2A</t>
+  </si>
+  <si>
+    <t>BC2B</t>
+  </si>
+  <si>
+    <t>DAW1</t>
+  </si>
+  <si>
+    <t>DAW2</t>
+  </si>
+  <si>
+    <t>SMR1</t>
+  </si>
+  <si>
+    <t>SMR2</t>
+  </si>
+  <si>
+    <t>Zacarias Zatrusteri, Zapatero</t>
+  </si>
+  <si>
+    <t>Núñez López, Samuel</t>
+  </si>
+  <si>
+    <t>Martín Guerrero, Rafael</t>
+  </si>
+  <si>
+    <t>González León, Alberto</t>
+  </si>
+  <si>
+    <t>Megías Gómez, Manuel</t>
+  </si>
+  <si>
+    <t>Merino Hernández, Marco Iván</t>
+  </si>
+  <si>
+    <t>Oliva Morales, Jesús</t>
+  </si>
+  <si>
+    <t>Ramos Sánchez, Ismael</t>
+  </si>
+  <si>
+    <t>Romero López, Alberto</t>
+  </si>
+  <si>
+    <t>Yanguas Torres, Daniel</t>
+  </si>
+  <si>
+    <t>Cabrera Ávila, Antonio</t>
+  </si>
+  <si>
+    <t>Caldito Jiménez, Alejandro</t>
+  </si>
+  <si>
+    <t>Campañon Enrique, María</t>
+  </si>
+  <si>
+    <t>Dávila Acedo, José Ángel</t>
+  </si>
+  <si>
+    <t>Fernández Suárez, Mario</t>
+  </si>
+  <si>
+    <t>Franco Díaz, Juan Antonio</t>
+  </si>
+  <si>
+    <t>Hidalgo Delgado, Francisco de Borja</t>
   </si>
 </sst>
 </file>
@@ -393,72 +498,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
